--- a/Documento/Datos de las pruebas del IRFZ44N y motores.xlsx
+++ b/Documento/Datos de las pruebas del IRFZ44N y motores.xlsx
@@ -199,6 +199,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -208,21 +214,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,12 +617,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="155886336"/>
-        <c:axId val="155884544"/>
+        <c:axId val="62596224"/>
+        <c:axId val="62598144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155886336"/>
+        <c:axId val="62596224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,12 +647,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155884544"/>
+        <c:crossAx val="62598144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155884544"/>
+        <c:axId val="62598144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +679,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155886336"/>
+        <c:crossAx val="62596224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -693,7 +692,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -715,7 +714,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Resistividad del MOSFET IRFZ44N en función de Vgs</a:t>
+              <a:t>Resistencia del MOSFET IRFZ44N en función de Vgs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -999,12 +998,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="184912896"/>
-        <c:axId val="184911360"/>
+        <c:axId val="63911808"/>
+        <c:axId val="63934464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184912896"/>
+        <c:axId val="63911808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,12 +1028,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184911360"/>
+        <c:crossAx val="63934464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184911360"/>
+        <c:axId val="63934464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1068,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184912896"/>
+        <c:crossAx val="63911808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1083,7 +1081,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1132,7 +1130,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1483,53 +1480,47 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="155579136"/>
-        <c:axId val="94181248"/>
+        <c:axId val="144521856"/>
+        <c:axId val="144540416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155579136"/>
+        <c:axId val="144521856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:layout/>
-        </c:title>
+        <c:title/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94181248"/>
+        <c:crossAx val="144540416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94181248"/>
+        <c:axId val="144540416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-        </c:title>
+        <c:title/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155579136"/>
+        <c:crossAx val="144521856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1918,39 +1909,39 @@
   <dimension ref="B2:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C6" s="11"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1958,13 +1949,13 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1978,7 +1969,7 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1992,7 +1983,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2006,7 +1997,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2020,7 +2011,7 @@
       <c r="E11" s="1">
         <v>0.7</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>0.8</v>
       </c>
     </row>
@@ -2034,7 +2025,7 @@
       <c r="E12" s="1">
         <v>1.5</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>1.7</v>
       </c>
     </row>
@@ -2048,7 +2039,7 @@
       <c r="E13" s="1">
         <v>3.5</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>3.64</v>
       </c>
     </row>
@@ -2062,7 +2053,7 @@
       <c r="E14" s="1">
         <v>3.5</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>3.56</v>
       </c>
     </row>
@@ -2076,7 +2067,7 @@
       <c r="E15" s="1">
         <v>3.46</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>3.51</v>
       </c>
     </row>
@@ -2090,7 +2081,7 @@
       <c r="E16" s="1">
         <v>3.38</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>3.46</v>
       </c>
     </row>
@@ -2104,7 +2095,7 @@
       <c r="E17" s="1">
         <v>3.34</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>3.43</v>
       </c>
     </row>
@@ -2118,7 +2109,7 @@
       <c r="E18" s="1">
         <v>3.34</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>3.41</v>
       </c>
     </row>
@@ -2132,30 +2123,30 @@
       <c r="E19" s="2">
         <v>3.33</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="4">
         <v>3.34</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="15.75" thickBot="1"/>
     <row r="27" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C28" s="10"/>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2314,24 +2305,24 @@
     </row>
     <row r="51" spans="3:6" ht="15.75" thickBot="1"/>
     <row r="52" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C52" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="5"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C53" s="11"/>
-      <c r="D53" s="13" t="s">
+      <c r="C53" s="13"/>
+      <c r="D53" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2339,16 +2330,16 @@
       <c r="C54" s="1">
         <v>0</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="6">
         <f>$C54*D7</f>
         <v>0</v>
       </c>
-      <c r="E54" s="12">
-        <f>12*E7</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="12">
-        <f>12*F7</f>
+      <c r="E54" s="6">
+        <f t="shared" ref="E54:F66" si="1">12*E7</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2357,15 +2348,15 @@
         <v>1</v>
       </c>
       <c r="D55" s="1">
-        <f>12*D8</f>
+        <f t="shared" ref="D55:D66" si="2">12*D8</f>
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <f>12*E8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <f>12*F8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2374,15 +2365,15 @@
         <v>2</v>
       </c>
       <c r="D56" s="1">
-        <f>12*D9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <f>12*E9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <f>12*F9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2391,15 +2382,15 @@
         <v>3</v>
       </c>
       <c r="D57" s="1">
-        <f>12*D10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <f>12*E10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <f>12*F10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2408,15 +2399,15 @@
         <v>3.5</v>
       </c>
       <c r="D58" s="1">
-        <f>12*D11</f>
+        <f t="shared" si="2"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="E58" s="1">
-        <f>12*E11</f>
+        <f t="shared" si="1"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="F58" s="1">
-        <f>12*F11</f>
+        <f t="shared" si="1"/>
         <v>9.6000000000000014</v>
       </c>
     </row>
@@ -2425,15 +2416,15 @@
         <v>4</v>
       </c>
       <c r="D59" s="1">
-        <f>12*D12</f>
+        <f t="shared" si="2"/>
         <v>14.399999999999999</v>
       </c>
       <c r="E59" s="1">
-        <f>12*E12</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F59" s="1">
-        <f>12*F12</f>
+        <f t="shared" si="1"/>
         <v>20.399999999999999</v>
       </c>
     </row>
@@ -2442,15 +2433,15 @@
         <v>5</v>
       </c>
       <c r="D60" s="1">
-        <f>12*D13</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="E60" s="1">
-        <f>12*E13</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="F60" s="1">
-        <f>12*F13</f>
+        <f t="shared" si="1"/>
         <v>43.68</v>
       </c>
     </row>
@@ -2459,15 +2450,15 @@
         <v>6</v>
       </c>
       <c r="D61" s="1">
-        <f>12*D14</f>
+        <f t="shared" si="2"/>
         <v>46.44</v>
       </c>
       <c r="E61" s="1">
-        <f>12*E14</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="F61" s="1">
-        <f>12*F14</f>
+        <f t="shared" si="1"/>
         <v>42.72</v>
       </c>
     </row>
@@ -2476,15 +2467,15 @@
         <v>7</v>
       </c>
       <c r="D62" s="1">
-        <f>12*D15</f>
+        <f t="shared" si="2"/>
         <v>46.44</v>
       </c>
       <c r="E62" s="1">
-        <f>12*E15</f>
+        <f t="shared" si="1"/>
         <v>41.519999999999996</v>
       </c>
       <c r="F62" s="1">
-        <f>12*F15</f>
+        <f t="shared" si="1"/>
         <v>42.12</v>
       </c>
     </row>
@@ -2493,15 +2484,15 @@
         <v>8</v>
       </c>
       <c r="D63" s="1">
-        <f>12*D16</f>
+        <f t="shared" si="2"/>
         <v>45.12</v>
       </c>
       <c r="E63" s="1">
-        <f>12*E16</f>
+        <f t="shared" si="1"/>
         <v>40.56</v>
       </c>
       <c r="F63" s="1">
-        <f>12*F16</f>
+        <f t="shared" si="1"/>
         <v>41.519999999999996</v>
       </c>
     </row>
@@ -2510,15 +2501,15 @@
         <v>9</v>
       </c>
       <c r="D64" s="1">
-        <f>12*D17</f>
+        <f t="shared" si="2"/>
         <v>45.36</v>
       </c>
       <c r="E64" s="1">
-        <f>12*E17</f>
+        <f t="shared" si="1"/>
         <v>40.08</v>
       </c>
       <c r="F64" s="1">
-        <f>12*F17</f>
+        <f t="shared" si="1"/>
         <v>41.160000000000004</v>
       </c>
     </row>
@@ -2527,15 +2518,15 @@
         <v>10</v>
       </c>
       <c r="D65" s="1">
-        <f>12*D18</f>
+        <f t="shared" si="2"/>
         <v>44.28</v>
       </c>
       <c r="E65" s="1">
-        <f>12*E18</f>
+        <f t="shared" si="1"/>
         <v>40.08</v>
       </c>
       <c r="F65" s="1">
-        <f>12*F18</f>
+        <f t="shared" si="1"/>
         <v>40.92</v>
       </c>
     </row>
@@ -2544,15 +2535,15 @@
         <v>11</v>
       </c>
       <c r="D66" s="2">
-        <f>12*D19</f>
+        <f t="shared" si="2"/>
         <v>43.2</v>
       </c>
       <c r="E66" s="2">
-        <f>12*E19</f>
+        <f t="shared" si="1"/>
         <v>39.96</v>
       </c>
       <c r="F66" s="2">
-        <f>12*F19</f>
+        <f t="shared" si="1"/>
         <v>40.08</v>
       </c>
     </row>

--- a/Documento/Datos de las pruebas del IRFZ44N y motores.xlsx
+++ b/Documento/Datos de las pruebas del IRFZ44N y motores.xlsx
@@ -617,11 +617,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="62596224"/>
-        <c:axId val="62598144"/>
+        <c:axId val="89783680"/>
+        <c:axId val="171583360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62596224"/>
+        <c:axId val="89783680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,12 +647,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62598144"/>
+        <c:crossAx val="171583360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62598144"/>
+        <c:axId val="171583360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +679,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62596224"/>
+        <c:crossAx val="89783680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -692,7 +692,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -998,11 +998,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="63911808"/>
-        <c:axId val="63934464"/>
+        <c:axId val="171629952"/>
+        <c:axId val="139478528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63911808"/>
+        <c:axId val="171629952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,12 +1028,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63934464"/>
+        <c:crossAx val="139478528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63934464"/>
+        <c:axId val="139478528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1068,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63911808"/>
+        <c:crossAx val="171629952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1081,7 +1081,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1480,11 +1480,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="144521856"/>
-        <c:axId val="144540416"/>
+        <c:axId val="133307392"/>
+        <c:axId val="133317760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144521856"/>
+        <c:axId val="133307392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,12 +1493,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144540416"/>
+        <c:crossAx val="133317760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144540416"/>
+        <c:axId val="133317760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,7 +1508,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144521856"/>
+        <c:crossAx val="133307392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1520,7 +1520,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
